--- a/results/mp/deberta/corona/confidence/168/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -103,34 +103,34 @@
     <t>safe</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>hand</t>
   </si>
   <si>
     <t>care</t>
@@ -1244,25 +1244,25 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6982758620689655</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L18">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="N18">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O18">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1270,13 +1270,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6956521739130435</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="N19">
         <v>0.9399999999999999</v>
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1296,25 +1296,25 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6888888888888889</v>
+        <v>0.6778242677824268</v>
       </c>
       <c r="L20">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="M20">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="N20">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1374,25 +1374,25 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5858895705521472</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L23">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="N23">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O23">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>135</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1400,25 +1400,25 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5735294117647058</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N24">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O24">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1429,22 +1429,22 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1452,25 +1452,25 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5714285714285714</v>
+        <v>0.5684210526315789</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="N26">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>27</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1478,25 +1478,25 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5684210526315789</v>
+        <v>0.5617647058823529</v>
       </c>
       <c r="L27">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="M27">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="N27">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="10:17">
